--- a/biology/Médecine/Neuroectoderme/Neuroectoderme.xlsx
+++ b/biology/Médecine/Neuroectoderme/Neuroectoderme.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le neuroectoderme (ou ectoderme neural) correspond à  l'ectoderme qui a reçu des signaux inhibiteurs des protéine morphogénétique de l'os (BMP) par des protéines telles que noggin ou la chordine. Les cellules ectodermiques n'étant pas exposées au BMP, ne formeront pas de tissu épidermique mais des tissus neuronales[1]. Ce tissu conduit à la formation et au développement de la totalité du système nerveux.[2]
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le neuroectoderme (ou ectoderme neural) correspond à  l'ectoderme qui a reçu des signaux inhibiteurs des protéine morphogénétique de l'os (BMP) par des protéines telles que noggin ou la chordine. Les cellules ectodermiques n'étant pas exposées au BMP, ne formeront pas de tissu épidermique mais des tissus neuronales. Ce tissu conduit à la formation et au développement de la totalité du système nerveux.
 Le neuroectoderme conduira à la formation de :
 La crête neurale
 les mélanocytes
